--- a/HW2/Q1/Q1_TestResult.xlsx
+++ b/HW2/Q1/Q1_TestResult.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -391,22 +391,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1510</c:v>
+                  <c:v>3061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3021</c:v>
+                  <c:v>6133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6045</c:v>
+                  <c:v>12277</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12091</c:v>
+                  <c:v>24565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24184</c:v>
+                  <c:v>49141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48370</c:v>
+                  <c:v>98293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,12 +592,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Comparision</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Number of </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> Times</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Comparisions</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -1003,22 +1003,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>209064</c:v>
+                  <c:v>46728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>803644</c:v>
+                  <c:v>169042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3225240</c:v>
+                  <c:v>660619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13095081</c:v>
+                  <c:v>2576270</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51601294</c:v>
+                  <c:v>9950922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>207354020</c:v>
+                  <c:v>39442456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,7 +1201,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Comparision Times</a:t>
+                  <a:t>Numbe</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Comparisions</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2475,16 +2483,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2814,7 +2822,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2850,7 +2858,7 @@
         <v>1023</v>
       </c>
       <c r="D2">
-        <v>1510</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2864,7 +2872,7 @@
         <v>2047</v>
       </c>
       <c r="D3">
-        <v>3021</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2878,7 +2886,7 @@
         <v>4095</v>
       </c>
       <c r="D4">
-        <v>6045</v>
+        <v>12277</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2892,7 +2900,7 @@
         <v>8191</v>
       </c>
       <c r="D5">
-        <v>12091</v>
+        <v>24565</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2906,7 +2914,7 @@
         <v>16383</v>
       </c>
       <c r="D6">
-        <v>24184</v>
+        <v>49141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2920,7 +2928,7 @@
         <v>32767</v>
       </c>
       <c r="D7">
-        <v>48370</v>
+        <v>98293</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2948,7 +2956,7 @@
         <v>265553</v>
       </c>
       <c r="D9">
-        <v>209064</v>
+        <v>46728</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2962,7 +2970,7 @@
         <v>1029278</v>
       </c>
       <c r="D10">
-        <v>803644</v>
+        <v>169042</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2976,7 +2984,7 @@
         <v>4187890</v>
       </c>
       <c r="D11">
-        <v>3225240</v>
+        <v>660619</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2990,7 +2998,7 @@
         <v>16936946</v>
       </c>
       <c r="D12">
-        <v>13095081</v>
+        <v>2576270</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3004,7 +3012,7 @@
         <v>66657561</v>
       </c>
       <c r="D13">
-        <v>51601294</v>
+        <v>9950922</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3018,7 +3026,7 @@
         <v>267966668</v>
       </c>
       <c r="D14">
-        <v>207354020</v>
+        <v>39442456</v>
       </c>
     </row>
   </sheetData>
